--- a/Jogos_do_Dia/2022-12-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1355,19 +1355,19 @@
         <v>3.05</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF8" t="n">
         <v>1.55</v>
@@ -1423,10 +1423,10 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.68</v>
+        <v>1.64</v>
       </c>
       <c r="N9" t="n">
-        <v>2.07</v>
+        <v>2.04</v>
       </c>
       <c r="O9" t="n">
         <v>1.33</v>
@@ -1465,28 +1465,28 @@
         <v>3.61</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG9" t="n">
         <v>1.95</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="10">
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="G13" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H13" t="n">
         <v>3.3</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3.38</v>
       </c>
       <c r="I13" t="n">
         <v>1.08</v>
@@ -1863,10 +1863,10 @@
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="N13" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="O13" t="n">
         <v>1.42</v>
@@ -1917,13 +1917,13 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AH13" t="n">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G14" t="n">
-        <v>3.77</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
-        <v>3.62</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
         <v>1.05</v>
@@ -1973,10 +1973,10 @@
         <v>3.61</v>
       </c>
       <c r="M14" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="N14" t="n">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
@@ -2015,13 +2015,13 @@
         <v>3.34</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AD14" t="n">
         <v>1.5</v>
@@ -2036,7 +2036,7 @@
         <v>3.3</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.15</v>
+        <v>4.33</v>
       </c>
       <c r="G15" t="n">
-        <v>3.68</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="I15" t="n">
         <v>1.05</v>
@@ -2083,10 +2083,10 @@
         <v>3.82</v>
       </c>
       <c r="M15" t="n">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="N15" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -2125,13 +2125,13 @@
         <v>2.92</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AD15" t="n">
         <v>1.26</v>
@@ -2172,52 +2172,52 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>4.62</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="V16" t="n">
         <v>0.5</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.67</v>
+        <v>2.63</v>
       </c>
       <c r="G17" t="n">
         <v>3.4</v>
       </c>
       <c r="H17" t="n">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="N17" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="O17" t="n">
         <v>1.33</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="G18" t="n">
-        <v>3.26</v>
+        <v>3.31</v>
       </c>
       <c r="H18" t="n">
-        <v>3.46</v>
+        <v>3.67</v>
       </c>
       <c r="I18" t="n">
         <v>1.07</v>
@@ -2413,10 +2413,10 @@
         <v>3.1</v>
       </c>
       <c r="M18" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="N18" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="O18" t="n">
         <v>1.44</v>
@@ -2455,28 +2455,28 @@
         <v>3.28</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>9.529999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="G19" t="n">
-        <v>5.24</v>
+        <v>4.6</v>
       </c>
       <c r="H19" t="n">
-        <v>1.22</v>
+        <v>1.31</v>
       </c>
       <c r="I19" t="n">
         <v>1.02</v>
@@ -2553,16 +2553,16 @@
         <v>0.89</v>
       </c>
       <c r="W19" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="X19" t="n">
         <v>1.17</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
       <c r="AA19" t="n">
         <v>6.25</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="G20" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>4.15</v>
+        <v>4.33</v>
       </c>
       <c r="I20" t="n">
         <v>1.03</v>
@@ -2633,10 +2633,10 @@
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="N20" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="O20" t="n">
         <v>1.33</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="G21" t="n">
-        <v>3.45</v>
+        <v>3.92</v>
       </c>
       <c r="H21" t="n">
-        <v>2.43</v>
+        <v>2.71</v>
       </c>
       <c r="I21" t="n">
         <v>1.02</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.01</v>
+        <v>2.06</v>
       </c>
       <c r="G22" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.87</v>
       </c>
       <c r="I22" t="n">
         <v>1.07</v>
@@ -2853,10 +2853,10 @@
         <v>3.1</v>
       </c>
       <c r="M22" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="N22" t="n">
-        <v>1.63</v>
+        <v>1.82</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -2942,52 +2942,52 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V23" t="n">
         <v>2</v>
@@ -3100,19 +3100,19 @@
         <v>1.22</v>
       </c>
       <c r="V24" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="W24" t="n">
         <v>2.43</v>
       </c>
       <c r="X24" t="n">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="Y24" t="n">
         <v>1.71</v>
       </c>
       <c r="Z24" t="n">
-        <v>3.34</v>
+        <v>3.42</v>
       </c>
       <c r="AA24" t="n">
         <v>0</v>
@@ -3162,52 +3162,52 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V25" t="n">
         <v>1</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="G26" t="n">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="H26" t="n">
-        <v>4.26</v>
+        <v>4.4</v>
       </c>
       <c r="I26" t="n">
         <v>1.04</v>
@@ -3293,10 +3293,10 @@
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="N26" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
         <v>1.3</v>
@@ -3323,16 +3323,16 @@
         <v>1.63</v>
       </c>
       <c r="W26" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="X26" t="n">
         <v>1.41</v>
       </c>
       <c r="Y26" t="n">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="Z26" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="AA26" t="n">
         <v>0</v>
@@ -3382,10 +3382,10 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="G27" t="n">
-        <v>3.48</v>
+        <v>3.25</v>
       </c>
       <c r="H27" t="n">
         <v>2.3</v>
@@ -3403,10 +3403,10 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="N27" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
         <v>1.3</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="G28" t="n">
-        <v>3.5</v>
+        <v>3.44</v>
       </c>
       <c r="H28" t="n">
-        <v>3.9</v>
+        <v>3.96</v>
       </c>
       <c r="I28" t="n">
         <v>1.06</v>
@@ -3513,10 +3513,10 @@
         <v>3.1</v>
       </c>
       <c r="M28" t="n">
-        <v>1.96</v>
+        <v>1.88</v>
       </c>
       <c r="N28" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
@@ -3555,13 +3555,13 @@
         <v>2.55</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AD28" t="n">
         <v>1.2</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.12</v>
+        <v>2.17</v>
       </c>
       <c r="G29" t="n">
-        <v>3.16</v>
+        <v>3.06</v>
       </c>
       <c r="H29" t="n">
-        <v>3.06</v>
+        <v>2.9</v>
       </c>
       <c r="I29" t="n">
         <v>1.07</v>
@@ -3623,10 +3623,10 @@
         <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="N29" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="O29" t="n">
         <v>1.44</v>
@@ -3677,16 +3677,16 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AG29" t="n">
         <v>2</v>
       </c>
       <c r="AH29" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2022-12-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2022-12-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>3.72</v>
       </c>
       <c r="V2" t="n">
         <v>1.87</v>
@@ -695,28 +695,28 @@
         <v>2.73</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="3">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="V3" t="n">
         <v>1.6</v>
@@ -805,28 +805,28 @@
         <v>3.03</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="4">
@@ -852,52 +852,52 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>3.18</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="V4" t="n">
         <v>2.07</v>
@@ -915,28 +915,28 @@
         <v>3.02</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="5">
@@ -962,52 +962,52 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="V5" t="n">
         <v>0.73</v>
@@ -1072,43 +1072,43 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="G6" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="H6" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.48</v>
+        <v>1.23</v>
       </c>
       <c r="N6" t="n">
-        <v>2.6</v>
+        <v>3.73</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1182,52 +1182,52 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="V7" t="n">
         <v>0.8100000000000001</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.39</v>
+        <v>2.5</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
         <v>1.05</v>
@@ -1313,10 +1313,10 @@
         <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="O8" t="n">
         <v>1.37</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H9" t="n">
-        <v>2.66</v>
+        <v>2.75</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1512,43 +1512,43 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1622,52 +1622,52 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="V11" t="n">
         <v>1.79</v>
@@ -1732,52 +1732,52 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="V12" t="n">
         <v>1.93</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="G13" t="n">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
         <v>1.08</v>
@@ -1863,10 +1863,10 @@
         <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="N13" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="O13" t="n">
         <v>1.42</v>
@@ -1905,16 +1905,16 @@
         <v>3.52</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE13" t="n">
         <v>1.57</v>
@@ -1926,7 +1926,7 @@
         <v>2.41</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="14">
@@ -1973,10 +1973,10 @@
         <v>3.61</v>
       </c>
       <c r="M14" t="n">
-        <v>1.74</v>
+        <v>1.81</v>
       </c>
       <c r="N14" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O14" t="n">
         <v>1.36</v>
@@ -2083,10 +2083,10 @@
         <v>3.82</v>
       </c>
       <c r="M15" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="N15" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="O15" t="n">
         <v>1.36</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>4.62</v>
+        <v>7.5</v>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
-        <v>1.85</v>
+        <v>1.45</v>
       </c>
       <c r="I16" t="n">
         <v>1.13</v>
@@ -2187,16 +2187,16 @@
         <v>5.25</v>
       </c>
       <c r="K16" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="L16" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="M16" t="n">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="N16" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.65</v>
@@ -2282,28 +2282,28 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="G17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H17" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="N17" t="n">
         <v>2.1</v>
@@ -2321,13 +2321,13 @@
         <v>2.25</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="V17" t="n">
         <v>0.13</v>
@@ -2345,28 +2345,28 @@
         <v>2.54</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE17" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AG17" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH17" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="18">
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="G18" t="n">
-        <v>3.31</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>3.67</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
         <v>1.07</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>6.8</v>
+        <v>8.5</v>
       </c>
       <c r="G19" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="I19" t="n">
         <v>1.02</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="G20" t="n">
         <v>3.6</v>
       </c>
       <c r="H20" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I20" t="n">
         <v>1.03</v>
@@ -2633,10 +2633,10 @@
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="N20" t="n">
-        <v>2.06</v>
+        <v>1.95</v>
       </c>
       <c r="O20" t="n">
         <v>1.33</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.44</v>
+        <v>2.62</v>
       </c>
       <c r="G21" t="n">
-        <v>3.92</v>
+        <v>3.5</v>
       </c>
       <c r="H21" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="I21" t="n">
         <v>1.02</v>
@@ -2743,10 +2743,10 @@
         <v>4.33</v>
       </c>
       <c r="M21" t="n">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="N21" t="n">
-        <v>2.13</v>
+        <v>2.09</v>
       </c>
       <c r="O21" t="n">
         <v>1.3</v>
@@ -2794,7 +2794,7 @@
         <v>2.16</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE21" t="n">
         <v>1.28</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.06</v>
+        <v>2.25</v>
       </c>
       <c r="G22" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.87</v>
+        <v>3.3</v>
       </c>
       <c r="I22" t="n">
         <v>1.07</v>
@@ -2853,10 +2853,10 @@
         <v>3.1</v>
       </c>
       <c r="M22" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="N22" t="n">
-        <v>1.82</v>
+        <v>1.73</v>
       </c>
       <c r="O22" t="n">
         <v>1.44</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="G23" t="n">
-        <v>8.4</v>
+        <v>10.5</v>
       </c>
       <c r="H23" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2963,10 +2963,10 @@
         <v>7</v>
       </c>
       <c r="M23" t="n">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
       <c r="N23" t="n">
-        <v>3.72</v>
+        <v>3.41</v>
       </c>
       <c r="O23" t="n">
         <v>1.17</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G25" t="n">
         <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="I25" t="n">
         <v>1.04</v>
@@ -3183,10 +3183,10 @@
         <v>4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="N25" t="n">
-        <v>2.2</v>
+        <v>2.02</v>
       </c>
       <c r="O25" t="n">
         <v>1.3</v>
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="G26" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H26" t="n">
         <v>4.4</v>
@@ -3293,10 +3293,10 @@
         <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="N26" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="O26" t="n">
         <v>1.3</v>
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G27" t="n">
         <v>3.25</v>
@@ -3403,10 +3403,10 @@
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="N27" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="O27" t="n">
         <v>1.3</v>
@@ -3492,13 +3492,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="G28" t="n">
-        <v>3.44</v>
+        <v>3.25</v>
       </c>
       <c r="H28" t="n">
-        <v>3.96</v>
+        <v>3.6</v>
       </c>
       <c r="I28" t="n">
         <v>1.06</v>
@@ -3513,10 +3513,10 @@
         <v>3.1</v>
       </c>
       <c r="M28" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="N28" t="n">
-        <v>1.82</v>
+        <v>1.77</v>
       </c>
       <c r="O28" t="n">
         <v>1.44</v>
@@ -3602,13 +3602,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.17</v>
+        <v>2.2</v>
       </c>
       <c r="G29" t="n">
-        <v>3.06</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="I29" t="n">
         <v>1.07</v>
